--- a/biology/Microbiologie/Tetrahymenidae/Tetrahymenidae.xlsx
+++ b/biology/Microbiologie/Tetrahymenidae/Tetrahymenidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Tetrahymenidae sont une famille de Ciliés de la classe des Oligohymenophorea et de l’ordre des Hymenostomatida.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Tetrahymena, composé de tetra, « quatre », et hymen, « membrane », en référence à la nature « à quatre membranes » des organites ciliaires de la région buccale de nombreux oligohyménophoriens. Par exemple les membres de la famille des Tetrahymenidae possèdent une membrane parorale (c'est-à-dire dans la région de la bouche) ou ondulante, située à droite de l'appareil buccal, et trois membranelles situées à gauche[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Tetrahymena, composé de tetra, « quatre », et hymen, « membrane », en référence à la nature « à quatre membranes » des organites ciliaires de la région buccale de nombreux oligohyménophoriens. Par exemple les membres de la famille des Tetrahymenidae possèdent une membrane parorale (c'est-à-dire dans la région de la bouche) ou ondulante, située à droite de l'appareil buccal, et trois membranelles situées à gauche.
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Tetrahymenidae ont une taille petite (&lt; 80 μm). Leur forme varie entre piriforme, allongée-ovoïde ou cylindrique. Ils vivent en natation libre. Leur ciliation somatique est  holotriche (c'est-à-dire homogène), comprenant entre une et neuf kinés postorales. Certaines espèces possèdent des cils caudaux. La structure buccale comprend des dikinétidés paroraux ciliés sur toute sa longueur, non recouverts de structures pelliculaires, et trois polykinétidés oraux, chacun d'un nombre égal de rangées de kinétosomes, bien que pas toujours de la même longueur.
 Leur macronoyau est globulaire, ellipsoïde ou rubané, rarement nodulaire. Un micronoyau est présent, mais quelques espèces sont amicronucléées (sans micronoyau). Des vacuoles contractiles sont présentes. Un cytoprocte (anus) est présent.
 Ils sont bactérivores, mais certaines espèces présentent une transformation de microstome (petit orifice buccal) en macrostome (large orifice buccal).
-Leurs kystes sont à la fois en sommeil et reproducteurs, chez certaines espèces[1].
+Leurs kystes sont à la fois en sommeil et reproducteurs, chez certaines espèces.
 </t>
         </is>
       </c>
@@ -576,10 +592,12 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Lynn, les Tetrahymenidae  vivent dans des habitats d'eau douce ou terrestres soit sous formes libres, soit comme parasites, facultatifs ou obligatoires, chez divers hôtes tels que les limaces, les escargots, les palourdes, les vers enchytréidéss, les moucherons, les moustiques, les têtards et les poissons ; une espèce a été découverte dans les voies urinaires d'un chien[1].
-Selon GBIF       (29 octobre 2023)[2], cette famille, qui contient 6 genres selon GBIF et seulement 3 pour Lynn, a une répartition mondiale et dans tous les milieux.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Lynn, les Tetrahymenidae  vivent dans des habitats d'eau douce ou terrestres soit sous formes libres, soit comme parasites, facultatifs ou obligatoires, chez divers hôtes tels que les limaces, les escargots, les palourdes, les vers enchytréidéss, les moucherons, les moustiques, les têtards et les poissons ; une espèce a été découverte dans les voies urinaires d'un chien.
+Selon GBIF       (29 octobre 2023), cette famille, qui contient 6 genres selon GBIF et seulement 3 pour Lynn, a une répartition mondiale et dans tous les milieux.
 </t>
         </is>
       </c>
@@ -608,9 +626,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (29 octobre 2023)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (29 octobre 2023) :
 Blepharostoma Schewiakoff, 1891
 Colpidium Stein, 1860
 Dexiostoma Jankowski, 1967
@@ -620,7 +640,7 @@
 Tetrahymena Furgason, 1940 genre type
 Espèce type : Tetrahymena geleii Furgason, 1940
 Espèce synonyme  Tetrahymena pyriformis (Ehrenberg 1830) Lwoff 1947
-Selon Lynn (2010)[1] :
+Selon Lynn (2010) :
 Lambornella Keilin, 1921
 Paraglaucoma Kahl, 1926
 Tetrahymena Furgason, 1940</t>
@@ -651,9 +671,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Tetrahymenidae Corliss, 1952[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Tetrahymenidae Corliss, 1952.
 </t>
         </is>
       </c>
